--- a/StudentGuideModule2/what_labs_to_include/132 lab list for 2016.xlsx
+++ b/StudentGuideModule2/what_labs_to_include/132 lab list for 2016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="192" windowWidth="22980" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="192" windowWidth="22980" windowHeight="9408" tabRatio="541"/>
   </bookViews>
   <sheets>
     <sheet name="lablist" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="155">
   <si>
     <t>title</t>
   </si>
@@ -767,9 +767,6 @@
   </si>
   <si>
     <t>C Introduction to Excel 277</t>
-  </si>
-  <si>
-    <t>40 Diffraction of Light 165</t>
   </si>
   <si>
     <t>41 Diffraction 2 171</t>
@@ -970,6 +967,18 @@
   </si>
   <si>
     <t>expected percent</t>
+  </si>
+  <si>
+    <t>by MT, 2015</t>
+  </si>
+  <si>
+    <t>Now obsolete.</t>
+  </si>
+  <si>
+    <t>39 Interference of Light from Multiple Slits</t>
+  </si>
+  <si>
+    <t>Diffraction of Light through a Single Slit</t>
   </si>
 </sst>
 </file>
@@ -2149,15 +2158,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7632" ySplit="864" topLeftCell="D1" activePane="bottomRight"/>
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-      <selection pane="topRight" activeCell="M1" sqref="M1:M1048576"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
-      <selection pane="bottomRight" activeCell="P52" sqref="P52"/>
+      <selection activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.88671875" style="45" customWidth="1"/>
     <col min="3" max="3" width="7.109375" style="3" customWidth="1"/>
     <col min="4" max="5" width="5.88671875" style="19" customWidth="1"/>
@@ -2176,22 +2185,22 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>8</v>
@@ -2212,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N1" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>11</v>
@@ -2224,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R1" s="9" t="s">
         <v>10</v>
@@ -2232,7 +2241,7 @@
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>12</v>
@@ -2316,16 +2325,16 @@
         <v>0</v>
       </c>
       <c r="P3" s="8">
-        <f t="shared" ref="P3:P11" si="3">SUMIF(N$2:N$76,"&gt;=" &amp; O3,D$2:D$76)</f>
-        <v>288</v>
+        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O3,D$2:D$76)</f>
+        <v>289</v>
       </c>
       <c r="Q3" s="8">
-        <f t="shared" ref="Q3:Q11" si="4">SUMIF(N$2:N$76,"&gt;=" &amp; O3,E$2:E$76)</f>
+        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O3,E$2:E$76)</f>
         <v>19</v>
       </c>
       <c r="R3" s="11">
         <f>$Q$16 + $Q$14*P3+($Q$15-$Q$14)*Q3</f>
-        <v>23.099999999999998</v>
+        <v>23.150000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -2333,7 +2342,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="17" t="str">
-        <f t="shared" ref="C4:C24" si="5">RIGHT(B4,2)</f>
+        <f t="shared" ref="C4:C24" si="3">RIGHT(B4,2)</f>
         <v>15</v>
       </c>
       <c r="D4" s="19">
@@ -2364,27 +2373,27 @@
         <v>0.5</v>
       </c>
       <c r="P4" s="8">
-        <f t="shared" si="3"/>
-        <v>205</v>
+        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O4,D$2:D$76)</f>
+        <v>206</v>
       </c>
       <c r="Q4" s="8">
-        <f t="shared" si="4"/>
+        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O4,E$2:E$76)</f>
         <v>11</v>
       </c>
       <c r="R4" s="11">
-        <f t="shared" ref="R4:R11" si="6">$Q$16 + $Q$14*P4+($Q$15-$Q$14)*Q4</f>
-        <v>16.55</v>
+        <f t="shared" ref="R4:R11" si="4">$Q$16 + $Q$14*P4+($Q$15-$Q$14)*Q4</f>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="D5" s="18">
@@ -2423,16 +2432,16 @@
         <v>1</v>
       </c>
       <c r="P5" s="8">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O5,D$2:D$76)</f>
+        <v>201</v>
       </c>
       <c r="Q5" s="8">
+        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O5,E$2:E$76)</f>
+        <v>11</v>
+      </c>
+      <c r="R5" s="11">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="R5" s="11">
-        <f t="shared" si="6"/>
-        <v>16.3</v>
+        <v>16.350000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -2440,7 +2449,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="D6" s="19">
@@ -2466,16 +2475,16 @@
         <v>1.5</v>
       </c>
       <c r="P6" s="48">
-        <f t="shared" si="3"/>
-        <v>150</v>
+        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O6,D$2:D$76)</f>
+        <v>146</v>
       </c>
       <c r="Q6" s="48">
+        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O6,E$2:E$76)</f>
+        <v>8</v>
+      </c>
+      <c r="R6" s="49">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="R6" s="49">
-        <f t="shared" si="6"/>
-        <v>12.9</v>
+        <v>12.700000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -2483,7 +2492,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="D7" s="19">
@@ -2518,16 +2527,16 @@
         <v>2</v>
       </c>
       <c r="P7" s="8">
-        <f t="shared" si="3"/>
-        <v>145</v>
+        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O7,D$2:D$76)</f>
+        <v>146</v>
       </c>
       <c r="Q7" s="8">
+        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O7,E$2:E$76)</f>
+        <v>8</v>
+      </c>
+      <c r="R7" s="11">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="R7" s="11">
-        <f t="shared" si="6"/>
-        <v>12.65</v>
+        <v>12.700000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -2535,7 +2544,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D8" s="19">
@@ -2564,16 +2573,16 @@
         <v>2.5</v>
       </c>
       <c r="P8" s="8">
-        <f t="shared" si="3"/>
-        <v>109</v>
+        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O8,D$2:D$76)</f>
+        <v>110</v>
       </c>
       <c r="Q8" s="8">
+        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O8,E$2:E$76)</f>
+        <v>7</v>
+      </c>
+      <c r="R8" s="11">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="R8" s="11">
-        <f t="shared" si="6"/>
-        <v>10.549999999999999</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -2581,7 +2590,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="D9" s="19">
@@ -2622,16 +2631,16 @@
         <v>3</v>
       </c>
       <c r="P9" s="8">
-        <f t="shared" si="3"/>
-        <v>81</v>
+        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O9,D$2:D$76)</f>
+        <v>82</v>
       </c>
       <c r="Q9" s="8">
+        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O9,E$2:E$76)</f>
+        <v>5</v>
+      </c>
+      <c r="R9" s="11">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="R9" s="11">
-        <f t="shared" si="6"/>
-        <v>8.5500000000000007</v>
+        <v>8.6000000000000014</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -2639,7 +2648,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="D10" s="19">
@@ -2676,16 +2685,16 @@
         <v>3.5</v>
       </c>
       <c r="P10" s="8">
-        <f t="shared" si="3"/>
-        <v>53</v>
+        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O10,D$2:D$76)</f>
+        <v>54</v>
       </c>
       <c r="Q10" s="8">
+        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O10,E$2:E$76)</f>
+        <v>4</v>
+      </c>
+      <c r="R10" s="11">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="R10" s="11">
-        <f t="shared" si="6"/>
-        <v>6.8500000000000005</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -2693,7 +2702,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="D11" s="19">
@@ -2727,16 +2736,16 @@
         <v>4</v>
       </c>
       <c r="P11" s="23">
-        <f t="shared" si="3"/>
-        <v>33</v>
+        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O11,D$2:D$76)</f>
+        <v>39</v>
       </c>
       <c r="Q11" s="23">
+        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O11,E$2:E$76)</f>
+        <v>4</v>
+      </c>
+      <c r="R11" s="24">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="R11" s="24">
-        <f t="shared" si="6"/>
-        <v>5.8500000000000005</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -2744,7 +2753,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="D12" s="19">
@@ -2783,7 +2792,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="D13" s="19">
@@ -2817,7 +2826,7 @@
         <v>3</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -2825,7 +2834,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="D14" s="19">
@@ -2857,7 +2866,7 @@
         <v>2</v>
       </c>
       <c r="P14" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="26">
         <v>0.05</v>
@@ -2868,7 +2877,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="D15" s="19">
@@ -2900,7 +2909,7 @@
         <v>2</v>
       </c>
       <c r="P15" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q15" s="11">
         <v>0.35</v>
@@ -2911,7 +2920,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="D16" s="19">
@@ -2943,7 +2952,7 @@
         <v>2</v>
       </c>
       <c r="P16" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q16" s="12">
         <v>3</v>
@@ -2954,7 +2963,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="D17" s="19">
@@ -2991,7 +3000,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="D18" s="19">
@@ -3014,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -3022,7 +3031,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="D19" s="19">
@@ -3056,7 +3065,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
       <c r="D20" s="19">
@@ -3087,13 +3096,13 @@
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="51" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="D21" s="18">
@@ -3135,7 +3144,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="D22" s="19">
@@ -3177,7 +3186,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="D23" s="19">
@@ -3211,7 +3220,7 @@
         <v>58</v>
       </c>
       <c r="C24" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="D24" s="19">
@@ -3283,7 +3292,7 @@
         <v>35</v>
       </c>
       <c r="C26" s="17" t="str">
-        <f t="shared" ref="C26:C75" si="7">RIGHT(B26,3)</f>
+        <f t="shared" ref="C26:C75" si="5">RIGHT(B26,3)</f>
         <v>104</v>
       </c>
       <c r="D26" s="19">
@@ -3325,7 +3334,7 @@
         <v>36</v>
       </c>
       <c r="C27" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
       <c r="D27" s="19">
@@ -3355,7 +3364,7 @@
         <v>37</v>
       </c>
       <c r="C28" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="D28" s="19">
@@ -3386,7 +3395,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
       <c r="D29" s="19">
@@ -3411,13 +3420,13 @@
     </row>
     <row r="30" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="51" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="D30" s="18">
@@ -3453,7 +3462,7 @@
         <v>40</v>
       </c>
       <c r="C31" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>123</v>
       </c>
       <c r="D31" s="19">
@@ -3490,7 +3499,7 @@
         <v>41</v>
       </c>
       <c r="C32" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>126</v>
       </c>
       <c r="D32" s="19">
@@ -3533,7 +3542,7 @@
         <v>42</v>
       </c>
       <c r="C33" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>129</v>
       </c>
       <c r="D33" s="19">
@@ -3564,10 +3573,10 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B34" s="45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>Law</v>
       </c>
       <c r="D34" s="19">
@@ -3581,7 +3590,7 @@
         <v>0.1</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I34" s="33">
         <v>1</v>
@@ -3602,7 +3611,7 @@
         <v>43</v>
       </c>
       <c r="C35" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
       <c r="D35" s="19">
@@ -3636,19 +3645,19 @@
         <v>1</v>
       </c>
       <c r="N35" s="40">
-        <f t="shared" ref="N35:N66" si="8">SUM(I35:L35)</f>
+        <f t="shared" ref="N35:N66" si="6">SUM(I35:L35)</f>
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" s="51" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>139</v>
       </c>
       <c r="D36" s="18">
@@ -3663,7 +3672,7 @@
         <v>0.1</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H36" s="35"/>
       <c r="I36" s="15">
@@ -3682,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="N36" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.7</v>
       </c>
       <c r="O36" s="20"/>
@@ -3692,7 +3701,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>141</v>
       </c>
       <c r="D37" s="19">
@@ -3726,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="N37" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.7</v>
       </c>
     </row>
@@ -3735,7 +3744,7 @@
         <v>46</v>
       </c>
       <c r="C38" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>146</v>
       </c>
       <c r="D38" s="19">
@@ -3751,7 +3760,7 @@
       </c>
       <c r="H38" s="36"/>
       <c r="N38" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3760,7 +3769,7 @@
         <v>47</v>
       </c>
       <c r="C39" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="D39" s="19">
@@ -3790,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
     </row>
@@ -3799,11 +3808,10 @@
         <v>48</v>
       </c>
       <c r="C40" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>156</v>
       </c>
       <c r="D40" s="19">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E40" s="19">
@@ -3814,10 +3822,10 @@
         <v>0.85</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I40" s="33">
         <v>1</v>
@@ -3832,38 +3840,36 @@
         <v>1</v>
       </c>
       <c r="N40" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>161</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C41" s="16"/>
       <c r="D41" s="18">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E41" s="18">
         <v>0</v>
       </c>
       <c r="F41" s="25">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G41" s="15">
         <v>40</v>
       </c>
-      <c r="H41" s="35"/>
+      <c r="H41" s="35" t="s">
+        <v>151</v>
+      </c>
       <c r="I41" s="15">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J41" s="15">
         <v>1</v>
@@ -3878,42 +3884,40 @@
         <v>1</v>
       </c>
       <c r="N41" s="39">
-        <f t="shared" si="8"/>
-        <v>3.7</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="O41" s="20"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B42" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>165</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="19">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" s="19">
         <v>0</v>
       </c>
       <c r="F42" s="25">
         <f t="shared" si="2"/>
-        <v>0.30000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G42" s="3">
         <v>41</v>
       </c>
-      <c r="H42" s="36"/>
+      <c r="H42" s="36" t="s">
+        <v>151</v>
+      </c>
       <c r="I42" s="33">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J42" s="3">
         <v>1</v>
       </c>
       <c r="K42" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L42" s="3">
         <v>1</v>
@@ -3922,16 +3926,16 @@
         <v>1</v>
       </c>
       <c r="N42" s="40">
-        <f t="shared" si="8"/>
-        <v>3.7</v>
+        <f t="shared" si="6"/>
+        <v>3.5</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B43" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>171</v>
       </c>
       <c r="D43" s="19">
@@ -3948,7 +3952,9 @@
       <c r="G43" s="3">
         <v>42</v>
       </c>
-      <c r="H43" s="36"/>
+      <c r="H43" s="36" t="s">
+        <v>152</v>
+      </c>
       <c r="J43" s="3">
         <v>1</v>
       </c>
@@ -3956,16 +3962,16 @@
         <v>1</v>
       </c>
       <c r="N43" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B44" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>173</v>
       </c>
       <c r="D44" s="19">
@@ -3996,19 +4002,19 @@
         <v>1</v>
       </c>
       <c r="N44" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>175</v>
       </c>
       <c r="D45" s="18">
@@ -4036,17 +4042,17 @@
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
       <c r="N45" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="O45" s="20"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B46" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>178</v>
       </c>
       <c r="D46" s="19">
@@ -4071,19 +4077,19 @@
         <v>1</v>
       </c>
       <c r="N46" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="D47" s="18">
@@ -4111,17 +4117,17 @@
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
       <c r="N47" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="O47" s="20"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B48" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C48" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>182</v>
       </c>
       <c r="D48" s="19">
@@ -4146,16 +4152,16 @@
         <v>1</v>
       </c>
       <c r="N48" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B49" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>186</v>
       </c>
       <c r="D49" s="19">
@@ -4177,16 +4183,16 @@
         <v>1</v>
       </c>
       <c r="N49" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B50" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>189</v>
       </c>
       <c r="D50" s="19">
@@ -4208,16 +4214,16 @@
         <v>1</v>
       </c>
       <c r="N50" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B51" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>192</v>
       </c>
       <c r="D51" s="19">
@@ -4239,16 +4245,16 @@
         <v>1</v>
       </c>
       <c r="N51" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B52" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>194</v>
       </c>
       <c r="D52" s="19">
@@ -4276,16 +4282,16 @@
         <v>1</v>
       </c>
       <c r="N52" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B53" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C53" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>199</v>
       </c>
       <c r="D53" s="19">
@@ -4304,22 +4310,22 @@
       </c>
       <c r="H53" s="36"/>
       <c r="I53" s="33">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="L53" s="3">
         <v>1</v>
       </c>
       <c r="N53" s="40">
-        <f t="shared" si="8"/>
-        <v>1.6</v>
+        <f t="shared" si="6"/>
+        <v>1.2</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B54" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C54" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>204</v>
       </c>
       <c r="D54" s="19">
@@ -4349,16 +4355,16 @@
         <v>1</v>
       </c>
       <c r="N54" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B55" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C55" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>205</v>
       </c>
       <c r="D55" s="19">
@@ -4379,16 +4385,16 @@
         <v>7</v>
       </c>
       <c r="N55" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B56" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>207</v>
       </c>
       <c r="D56" s="19">
@@ -4412,16 +4418,16 @@
         <v>1</v>
       </c>
       <c r="N56" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B57" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>212</v>
       </c>
       <c r="D57" s="19">
@@ -4443,16 +4449,16 @@
         <v>1</v>
       </c>
       <c r="N57" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B58" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>221</v>
       </c>
       <c r="D58" s="19">
@@ -4474,19 +4480,19 @@
         <v>1</v>
       </c>
       <c r="N58" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B59" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>228</v>
       </c>
       <c r="D59" s="18">
@@ -4514,17 +4520,17 @@
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
       <c r="N59" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="O59" s="20"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B60" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C60" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>231</v>
       </c>
       <c r="D60" s="19">
@@ -4543,16 +4549,16 @@
       </c>
       <c r="H60" s="36"/>
       <c r="N60" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B61" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>238</v>
       </c>
       <c r="D61" s="19">
@@ -4571,16 +4577,16 @@
       </c>
       <c r="H61" s="36"/>
       <c r="N61" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B62" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C62" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>245</v>
       </c>
       <c r="D62" s="19">
@@ -4602,19 +4608,19 @@
         <v>1</v>
       </c>
       <c r="N62" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B63" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C63" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>255</v>
       </c>
       <c r="D63" s="18">
@@ -4638,17 +4644,17 @@
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
       <c r="N63" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O63" s="20"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B64" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C64" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>261</v>
       </c>
       <c r="D64" s="19">
@@ -4667,16 +4673,16 @@
       </c>
       <c r="H64" s="36"/>
       <c r="N64" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B65" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>264</v>
       </c>
       <c r="D65" s="19">
@@ -4695,16 +4701,16 @@
       </c>
       <c r="H65" s="36"/>
       <c r="N65" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B66" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C66" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>268</v>
       </c>
       <c r="D66" s="19">
@@ -4723,16 +4729,16 @@
       </c>
       <c r="H66" s="36"/>
       <c r="N66" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B67" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C67" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>272</v>
       </c>
       <c r="D67" s="19">
@@ -4751,19 +4757,19 @@
       </c>
       <c r="H67" s="36"/>
       <c r="N67" s="40">
-        <f t="shared" ref="N67:N75" si="9">SUM(I67:L67)</f>
+        <f t="shared" ref="N67:N75" si="7">SUM(I67:L67)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B68" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C68" s="16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>275</v>
       </c>
       <c r="D68" s="18">
@@ -4774,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="25">
-        <f t="shared" ref="F68:F75" si="10">$Q$14*D68+($Q$15-$Q$14)*E68</f>
+        <f t="shared" ref="F68:F75" si="8">$Q$14*D68+($Q$15-$Q$14)*E68</f>
         <v>0.1</v>
       </c>
       <c r="G68" s="15"/>
@@ -4793,65 +4799,65 @@
       </c>
       <c r="M68" s="15"/>
       <c r="N68" s="39">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="O68" s="20"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B69" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>277</v>
+      </c>
+      <c r="D69" s="19">
+        <f t="shared" ref="D69:D74" si="9">C70-C69</f>
+        <v>2</v>
+      </c>
+      <c r="E69" s="19">
+        <v>1</v>
+      </c>
+      <c r="F69" s="25">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="H69" s="36"/>
+      <c r="I69" s="33">
+        <v>1</v>
+      </c>
+      <c r="J69" s="3">
+        <v>1</v>
+      </c>
+      <c r="K69" s="3">
+        <v>1</v>
+      </c>
+      <c r="L69" s="3">
+        <v>1</v>
+      </c>
+      <c r="N69" s="40">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B70" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>279</v>
+      </c>
+      <c r="D70" s="19">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="O68" s="20"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B69" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>277</v>
-      </c>
-      <c r="D69" s="19">
-        <f t="shared" ref="D69:D74" si="11">C70-C69</f>
-        <v>2</v>
-      </c>
-      <c r="E69" s="19">
-        <v>1</v>
-      </c>
-      <c r="F69" s="25">
-        <f t="shared" si="10"/>
-        <v>0.4</v>
-      </c>
-      <c r="H69" s="36"/>
-      <c r="I69" s="33">
-        <v>1</v>
-      </c>
-      <c r="J69" s="3">
-        <v>1</v>
-      </c>
-      <c r="K69" s="3">
-        <v>1</v>
-      </c>
-      <c r="L69" s="3">
-        <v>1</v>
-      </c>
-      <c r="N69" s="40">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B70" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>279</v>
-      </c>
-      <c r="D70" s="19">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
       <c r="E70" s="19">
         <v>3</v>
       </c>
       <c r="F70" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="H70" s="36"/>
@@ -4868,27 +4874,27 @@
         <v>1</v>
       </c>
       <c r="N70" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B71" s="45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C71" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>283</v>
       </c>
       <c r="D71" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E71" s="19">
         <v>0</v>
       </c>
       <c r="F71" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
       <c r="H71" s="36" t="s">
@@ -4904,93 +4910,93 @@
         <v>1</v>
       </c>
       <c r="N71" s="40">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B72" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>284</v>
+      </c>
+      <c r="D72" s="19">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E72" s="19">
+        <v>0</v>
+      </c>
+      <c r="F72" s="25">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="H72" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N72" s="40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B73" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v>286</v>
+      </c>
+      <c r="D73" s="19">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B72" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>284</v>
-      </c>
-      <c r="D72" s="19">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="E72" s="19">
-        <v>0</v>
-      </c>
-      <c r="F72" s="25">
-        <f t="shared" si="10"/>
-        <v>0.1</v>
-      </c>
-      <c r="H72" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="N72" s="40">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B73" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v>286</v>
-      </c>
-      <c r="D73" s="19">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
       <c r="E73" s="19">
         <v>1</v>
       </c>
       <c r="F73" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.45</v>
       </c>
       <c r="H73" s="36"/>
       <c r="N73" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B74" s="45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C74" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>289</v>
       </c>
       <c r="D74" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E74" s="19">
         <v>0</v>
       </c>
       <c r="F74" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
       <c r="H74" s="36"/>
       <c r="N74" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B75" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C75" s="52" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
       <c r="D75" s="53">
@@ -5000,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.2</v>
       </c>
       <c r="G75" s="54"/>
@@ -5011,105 +5017,105 @@
       <c r="L75" s="54"/>
       <c r="M75" s="54"/>
       <c r="N75" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H77" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I77" s="15">
         <f t="array" ref="I77">SUM($D2:$D75*(I2:I75&gt;=0.9)*($N2:$N75&gt;=$P$19))</f>
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="J77" s="15">
         <f t="array" ref="J77">SUM($D2:$D75*(J2:J75&gt;=0.9)*($N2:$N75&gt;=$P$19))</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K77" s="15">
         <f t="array" ref="K77">SUM($D2:$D75*(K2:K75&gt;=0.9)*($N2:$N75&gt;=$P$19))</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L77" s="35">
         <f t="array" ref="L77">SUM($D2:$D75*(L2:L75&gt;=0.9)*($N2:$N75&gt;=$P$19))</f>
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M77" s="36"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H78" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I78" s="33">
         <f t="array" ref="I78">SUM($D2:$D75*I2:I75*($N2:$N75&gt;=$P$19))</f>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J78" s="33">
         <f t="array" ref="J78">SUM($D2:$D75*J2:J75*($N2:$N75&gt;=$P$19))</f>
-        <v>97.5</v>
+        <v>98.5</v>
       </c>
       <c r="K78" s="33">
         <f t="array" ref="K78">SUM($D2:$D75*K2:K75*($N2:$N75&gt;=$P$19))</f>
-        <v>110.9</v>
+        <v>109.4</v>
       </c>
       <c r="L78" s="36">
         <f t="array" ref="L78">SUM($D2:$D75*L2:L75*($N2:$N75&gt;=$P$19))</f>
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M78" s="36"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H79" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I79" s="58">
         <f>I78/$P$6</f>
-        <v>0.77333333333333332</v>
+        <v>0.80136986301369861</v>
       </c>
       <c r="J79" s="58">
         <f>J78/$P$6</f>
-        <v>0.65</v>
+        <v>0.67465753424657537</v>
       </c>
       <c r="K79" s="58">
         <f>K78/$P$6</f>
-        <v>0.7393333333333334</v>
+        <v>0.74931506849315077</v>
       </c>
       <c r="L79" s="59">
         <f>L78/$P$6</f>
-        <v>0.78</v>
+        <v>0.77397260273972601</v>
       </c>
       <c r="M79" s="36"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H80" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I80" s="33">
         <f t="array" ref="I80">SUM($D2:$D75*(I2:I75&gt;=0.1)*($N2:$N75&gt;=$P$19))</f>
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J80" s="33">
         <f t="array" ref="J80">SUM($D2:$D75*(J2:J75&gt;=0.1)*($N2:$N75&gt;=$P$19))</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K80" s="33">
         <f t="array" ref="K80">SUM($D2:$D75*(K2:K75&gt;=0.1)*($N2:$N75&gt;=$P$19))</f>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L80" s="36">
         <f t="array" ref="L80">SUM($D2:$D75*(L2:L75&gt;=0.1)*($N2:$N75&gt;=$P$19))</f>
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M80" s="36"/>
     </row>
     <row r="81" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H81" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I81" s="33">
         <f t="array" ref="I81">SUM($D2:$D75*I2:I75*($N2:$N75&lt;$P$19))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" s="33">
         <f t="array" ref="J81">SUM($D2:$D75*J2:J75*($N2:$N75&lt;$P$19))</f>
@@ -5121,11 +5127,11 @@
       </c>
       <c r="L81" s="36">
         <f t="array" ref="L81">SUM($D2:$D75*L2:L75*($N2:$N75&lt;$P$19))</f>
-        <v>20.2</v>
+        <v>25.2</v>
       </c>
       <c r="M81" s="36">
         <f t="array" ref="M81">SUM($D2:$D75*CEILING(M2:M75,1))</f>
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="8:13" x14ac:dyDescent="0.3">
@@ -5136,7 +5142,7 @@
       <c r="L82" s="41"/>
       <c r="M82" s="41">
         <f t="array" ref="M82">SUM($F2:$F75*FLOOR(M2:M75,1))</f>
-        <v>6.6999999999999975</v>
+        <v>6.7499999999999973</v>
       </c>
     </row>
     <row r="83" spans="8:13" x14ac:dyDescent="0.3">
@@ -5147,7 +5153,7 @@
       <c r="L83" s="42"/>
       <c r="M83" s="42">
         <f t="array" ref="M83">SUM($F2:$F75*CEILING(M2:M75,1))</f>
-        <v>7.2499999999999991</v>
+        <v>7.2999999999999989</v>
       </c>
     </row>
   </sheetData>

--- a/StudentGuideModule2/what_labs_to_include/132 lab list for 2016.xlsx
+++ b/StudentGuideModule2/what_labs_to_include/132 lab list for 2016.xlsx
@@ -2157,11 +2157,11 @@
   <dimension ref="A1:R83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7632" ySplit="864" topLeftCell="D1" activePane="bottomRight"/>
+      <pane xSplit="7632" ySplit="864" topLeftCell="I1" activePane="bottomRight"/>
       <selection activeCell="B46" sqref="B46"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2325,11 +2325,11 @@
         <v>0</v>
       </c>
       <c r="P3" s="8">
-        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O3,D$2:D$76)</f>
+        <f t="shared" ref="P3:P11" si="3">SUMIF(N$2:N$76,"&gt;=" &amp; O3,D$2:D$76)</f>
         <v>289</v>
       </c>
       <c r="Q3" s="8">
-        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O3,E$2:E$76)</f>
+        <f t="shared" ref="Q3:Q11" si="4">SUMIF(N$2:N$76,"&gt;=" &amp; O3,E$2:E$76)</f>
         <v>19</v>
       </c>
       <c r="R3" s="11">
@@ -2342,7 +2342,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="17" t="str">
-        <f t="shared" ref="C4:C24" si="3">RIGHT(B4,2)</f>
+        <f t="shared" ref="C4:C24" si="5">RIGHT(B4,2)</f>
         <v>15</v>
       </c>
       <c r="D4" s="19">
@@ -2373,16 +2373,16 @@
         <v>0.5</v>
       </c>
       <c r="P4" s="8">
-        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O4,D$2:D$76)</f>
-        <v>206</v>
+        <f t="shared" si="3"/>
+        <v>204</v>
       </c>
       <c r="Q4" s="8">
-        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O4,E$2:E$76)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="R4" s="11">
-        <f t="shared" ref="R4:R11" si="4">$Q$16 + $Q$14*P4+($Q$15-$Q$14)*Q4</f>
-        <v>16.600000000000001</v>
+        <f t="shared" ref="R4:R11" si="6">$Q$16 + $Q$14*P4+($Q$15-$Q$14)*Q4</f>
+        <v>16.5</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D5" s="18">
@@ -2432,16 +2432,16 @@
         <v>1</v>
       </c>
       <c r="P5" s="8">
-        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O5,D$2:D$76)</f>
-        <v>201</v>
+        <f t="shared" si="3"/>
+        <v>199</v>
       </c>
       <c r="Q5" s="8">
-        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O5,E$2:E$76)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="R5" s="11">
-        <f t="shared" si="4"/>
-        <v>16.350000000000001</v>
+        <f t="shared" si="6"/>
+        <v>16.25</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -2449,7 +2449,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="D6" s="19">
@@ -2475,15 +2475,15 @@
         <v>1.5</v>
       </c>
       <c r="P6" s="48">
-        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O6,D$2:D$76)</f>
+        <f t="shared" si="3"/>
         <v>146</v>
       </c>
       <c r="Q6" s="48">
-        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O6,E$2:E$76)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="R6" s="49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.700000000000001</v>
       </c>
     </row>
@@ -2492,7 +2492,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="D7" s="19">
@@ -2527,15 +2527,15 @@
         <v>2</v>
       </c>
       <c r="P7" s="8">
-        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O7,D$2:D$76)</f>
+        <f t="shared" si="3"/>
         <v>146</v>
       </c>
       <c r="Q7" s="8">
-        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O7,E$2:E$76)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="R7" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.700000000000001</v>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="D8" s="19">
@@ -2573,15 +2573,15 @@
         <v>2.5</v>
       </c>
       <c r="P8" s="8">
-        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O8,D$2:D$76)</f>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="Q8" s="8">
-        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O8,E$2:E$76)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="R8" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10.6</v>
       </c>
     </row>
@@ -2590,7 +2590,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="D9" s="19">
@@ -2631,15 +2631,15 @@
         <v>3</v>
       </c>
       <c r="P9" s="8">
-        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O9,D$2:D$76)</f>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="Q9" s="8">
-        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O9,E$2:E$76)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="R9" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.6000000000000014</v>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="D10" s="19">
@@ -2685,15 +2685,15 @@
         <v>3.5</v>
       </c>
       <c r="P10" s="8">
-        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O10,D$2:D$76)</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="Q10" s="8">
-        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O10,E$2:E$76)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="R10" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.9</v>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="D11" s="19">
@@ -2736,15 +2736,15 @@
         <v>4</v>
       </c>
       <c r="P11" s="23">
-        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O11,D$2:D$76)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="Q11" s="23">
-        <f>SUMIF(N$2:N$76,"&gt;=" &amp; O11,E$2:E$76)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="R11" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.15</v>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="D12" s="19">
@@ -2792,7 +2792,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="D13" s="19">
@@ -2834,7 +2834,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D14" s="19">
@@ -2877,7 +2877,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D15" s="19">
@@ -2920,7 +2920,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D16" s="19">
@@ -2963,7 +2963,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="19">
@@ -3000,7 +3000,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D18" s="19">
@@ -3031,7 +3031,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="D19" s="19">
@@ -3065,7 +3065,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="D20" s="19">
@@ -3102,7 +3102,7 @@
         <v>31</v>
       </c>
       <c r="C21" s="16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="D21" s="18">
@@ -3144,7 +3144,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="D22" s="19">
@@ -3186,7 +3186,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="D23" s="19">
@@ -3220,7 +3220,7 @@
         <v>58</v>
       </c>
       <c r="C24" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="D24" s="19">
@@ -3292,7 +3292,7 @@
         <v>35</v>
       </c>
       <c r="C26" s="17" t="str">
-        <f t="shared" ref="C26:C75" si="5">RIGHT(B26,3)</f>
+        <f t="shared" ref="C26:C75" si="7">RIGHT(B26,3)</f>
         <v>104</v>
       </c>
       <c r="D26" s="19">
@@ -3334,7 +3334,7 @@
         <v>36</v>
       </c>
       <c r="C27" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
       <c r="D27" s="19">
@@ -3364,7 +3364,7 @@
         <v>37</v>
       </c>
       <c r="C28" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="D28" s="19">
@@ -3395,7 +3395,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>115</v>
       </c>
       <c r="D29" s="19">
@@ -3426,7 +3426,7 @@
         <v>39</v>
       </c>
       <c r="C30" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="D30" s="18">
@@ -3462,7 +3462,7 @@
         <v>40</v>
       </c>
       <c r="C31" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>123</v>
       </c>
       <c r="D31" s="19">
@@ -3499,7 +3499,7 @@
         <v>41</v>
       </c>
       <c r="C32" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>126</v>
       </c>
       <c r="D32" s="19">
@@ -3542,7 +3542,7 @@
         <v>42</v>
       </c>
       <c r="C33" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>129</v>
       </c>
       <c r="D33" s="19">
@@ -3576,7 +3576,7 @@
         <v>143</v>
       </c>
       <c r="C34" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Law</v>
       </c>
       <c r="D34" s="19">
@@ -3611,7 +3611,7 @@
         <v>43</v>
       </c>
       <c r="C35" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>132</v>
       </c>
       <c r="D35" s="19">
@@ -3645,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="N35" s="40">
-        <f t="shared" ref="N35:N66" si="6">SUM(I35:L35)</f>
+        <f t="shared" ref="N35:N66" si="8">SUM(I35:L35)</f>
         <v>4</v>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
         <v>44</v>
       </c>
       <c r="C36" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>139</v>
       </c>
       <c r="D36" s="18">
@@ -3691,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="N36" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.7</v>
       </c>
       <c r="O36" s="20"/>
@@ -3701,7 +3701,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>141</v>
       </c>
       <c r="D37" s="19">
@@ -3735,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="N37" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.7</v>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
         <v>46</v>
       </c>
       <c r="C38" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>146</v>
       </c>
       <c r="D38" s="19">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="H38" s="36"/>
       <c r="N38" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
         <v>47</v>
       </c>
       <c r="C39" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="D39" s="19">
@@ -3799,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="N39" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
     </row>
@@ -3808,7 +3808,7 @@
         <v>48</v>
       </c>
       <c r="C40" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>156</v>
       </c>
       <c r="D40" s="19">
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="N41" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="O41" s="20"/>
@@ -3926,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="N42" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.5</v>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
         <v>85</v>
       </c>
       <c r="C43" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>171</v>
       </c>
       <c r="D43" s="19">
@@ -3955,15 +3955,12 @@
       <c r="H43" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="J43" s="3">
-        <v>1</v>
-      </c>
       <c r="M43" s="3">
         <v>1</v>
       </c>
       <c r="N43" s="40">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -3971,7 +3968,7 @@
         <v>86</v>
       </c>
       <c r="C44" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>173</v>
       </c>
       <c r="D44" s="19">
@@ -4002,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="N44" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -4014,7 +4011,7 @@
         <v>103</v>
       </c>
       <c r="C45" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>175</v>
       </c>
       <c r="D45" s="18">
@@ -4042,7 +4039,7 @@
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
       <c r="N45" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="O45" s="20"/>
@@ -4052,7 +4049,7 @@
         <v>104</v>
       </c>
       <c r="C46" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>178</v>
       </c>
       <c r="D46" s="19">
@@ -4077,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="N46" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4089,7 +4086,7 @@
         <v>105</v>
       </c>
       <c r="C47" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="D47" s="18">
@@ -4117,7 +4114,7 @@
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
       <c r="N47" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="O47" s="20"/>
@@ -4127,7 +4124,7 @@
         <v>134</v>
       </c>
       <c r="C48" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>182</v>
       </c>
       <c r="D48" s="19">
@@ -4152,7 +4149,7 @@
         <v>1</v>
       </c>
       <c r="N48" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4161,7 +4158,7 @@
         <v>131</v>
       </c>
       <c r="C49" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>186</v>
       </c>
       <c r="D49" s="19">
@@ -4183,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="N49" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4192,7 +4189,7 @@
         <v>106</v>
       </c>
       <c r="C50" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>189</v>
       </c>
       <c r="D50" s="19">
@@ -4214,7 +4211,7 @@
         <v>1</v>
       </c>
       <c r="N50" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4223,7 +4220,7 @@
         <v>107</v>
       </c>
       <c r="C51" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>192</v>
       </c>
       <c r="D51" s="19">
@@ -4245,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="N51" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4254,7 +4251,7 @@
         <v>108</v>
       </c>
       <c r="C52" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>194</v>
       </c>
       <c r="D52" s="19">
@@ -4282,7 +4279,7 @@
         <v>1</v>
       </c>
       <c r="N52" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -4291,7 +4288,7 @@
         <v>109</v>
       </c>
       <c r="C53" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>199</v>
       </c>
       <c r="D53" s="19">
@@ -4316,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="N53" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2</v>
       </c>
     </row>
@@ -4325,7 +4322,7 @@
         <v>110</v>
       </c>
       <c r="C54" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>204</v>
       </c>
       <c r="D54" s="19">
@@ -4355,7 +4352,7 @@
         <v>1</v>
       </c>
       <c r="N54" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -4364,7 +4361,7 @@
         <v>132</v>
       </c>
       <c r="C55" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>205</v>
       </c>
       <c r="D55" s="19">
@@ -4385,7 +4382,7 @@
         <v>7</v>
       </c>
       <c r="N55" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4394,7 +4391,7 @@
         <v>111</v>
       </c>
       <c r="C56" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>207</v>
       </c>
       <c r="D56" s="19">
@@ -4418,7 +4415,7 @@
         <v>1</v>
       </c>
       <c r="N56" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -4427,7 +4424,7 @@
         <v>112</v>
       </c>
       <c r="C57" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>212</v>
       </c>
       <c r="D57" s="19">
@@ -4449,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="N57" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4458,7 +4455,7 @@
         <v>113</v>
       </c>
       <c r="C58" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>221</v>
       </c>
       <c r="D58" s="19">
@@ -4480,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="N58" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4492,7 +4489,7 @@
         <v>114</v>
       </c>
       <c r="C59" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>228</v>
       </c>
       <c r="D59" s="18">
@@ -4520,7 +4517,7 @@
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
       <c r="N59" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="O59" s="20"/>
@@ -4530,7 +4527,7 @@
         <v>115</v>
       </c>
       <c r="C60" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>231</v>
       </c>
       <c r="D60" s="19">
@@ -4549,7 +4546,7 @@
       </c>
       <c r="H60" s="36"/>
       <c r="N60" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4558,7 +4555,7 @@
         <v>116</v>
       </c>
       <c r="C61" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>238</v>
       </c>
       <c r="D61" s="19">
@@ -4577,7 +4574,7 @@
       </c>
       <c r="H61" s="36"/>
       <c r="N61" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4586,7 +4583,7 @@
         <v>117</v>
       </c>
       <c r="C62" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>245</v>
       </c>
       <c r="D62" s="19">
@@ -4608,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="N62" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -4620,7 +4617,7 @@
         <v>118</v>
       </c>
       <c r="C63" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>255</v>
       </c>
       <c r="D63" s="18">
@@ -4644,7 +4641,7 @@
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
       <c r="N63" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O63" s="20"/>
@@ -4654,7 +4651,7 @@
         <v>119</v>
       </c>
       <c r="C64" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>261</v>
       </c>
       <c r="D64" s="19">
@@ -4673,7 +4670,7 @@
       </c>
       <c r="H64" s="36"/>
       <c r="N64" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4682,7 +4679,7 @@
         <v>120</v>
       </c>
       <c r="C65" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>264</v>
       </c>
       <c r="D65" s="19">
@@ -4701,7 +4698,7 @@
       </c>
       <c r="H65" s="36"/>
       <c r="N65" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4710,7 +4707,7 @@
         <v>121</v>
       </c>
       <c r="C66" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>268</v>
       </c>
       <c r="D66" s="19">
@@ -4729,7 +4726,7 @@
       </c>
       <c r="H66" s="36"/>
       <c r="N66" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4738,7 +4735,7 @@
         <v>122</v>
       </c>
       <c r="C67" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>272</v>
       </c>
       <c r="D67" s="19">
@@ -4757,7 +4754,7 @@
       </c>
       <c r="H67" s="36"/>
       <c r="N67" s="40">
-        <f t="shared" ref="N67:N75" si="7">SUM(I67:L67)</f>
+        <f t="shared" ref="N67:N75" si="9">SUM(I67:L67)</f>
         <v>0</v>
       </c>
     </row>
@@ -4769,7 +4766,7 @@
         <v>123</v>
       </c>
       <c r="C68" s="16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>275</v>
       </c>
       <c r="D68" s="18">
@@ -4780,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="25">
-        <f t="shared" ref="F68:F75" si="8">$Q$14*D68+($Q$15-$Q$14)*E68</f>
+        <f t="shared" ref="F68:F75" si="10">$Q$14*D68+($Q$15-$Q$14)*E68</f>
         <v>0.1</v>
       </c>
       <c r="G68" s="15"/>
@@ -4799,7 +4796,7 @@
       </c>
       <c r="M68" s="15"/>
       <c r="N68" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O68" s="20"/>
@@ -4809,18 +4806,18 @@
         <v>124</v>
       </c>
       <c r="C69" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>277</v>
       </c>
       <c r="D69" s="19">
-        <f t="shared" ref="D69:D74" si="9">C70-C69</f>
+        <f t="shared" ref="D69:D74" si="11">C70-C69</f>
         <v>2</v>
       </c>
       <c r="E69" s="19">
         <v>1</v>
       </c>
       <c r="F69" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
       <c r="H69" s="36"/>
@@ -4837,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="N69" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -4846,18 +4843,18 @@
         <v>125</v>
       </c>
       <c r="C70" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>279</v>
       </c>
       <c r="D70" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="E70" s="19">
         <v>3</v>
       </c>
       <c r="F70" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="H70" s="36"/>
@@ -4874,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="N70" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -4883,18 +4880,18 @@
         <v>126</v>
       </c>
       <c r="C71" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>283</v>
       </c>
       <c r="D71" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E71" s="19">
         <v>0</v>
       </c>
       <c r="F71" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.05</v>
       </c>
       <c r="H71" s="36" t="s">
@@ -4910,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="N71" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -4919,25 +4916,25 @@
         <v>127</v>
       </c>
       <c r="C72" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>284</v>
       </c>
       <c r="D72" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="E72" s="19">
         <v>0</v>
       </c>
       <c r="F72" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
       <c r="H72" s="36" t="s">
         <v>7</v>
       </c>
       <c r="N72" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4946,23 +4943,23 @@
         <v>128</v>
       </c>
       <c r="C73" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>286</v>
       </c>
       <c r="D73" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="E73" s="19">
         <v>1</v>
       </c>
       <c r="F73" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.45</v>
       </c>
       <c r="H73" s="36"/>
       <c r="N73" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4971,23 +4968,23 @@
         <v>129</v>
       </c>
       <c r="C74" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>289</v>
       </c>
       <c r="D74" s="19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E74" s="19">
         <v>0</v>
       </c>
       <c r="F74" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.05</v>
       </c>
       <c r="H74" s="36"/>
       <c r="N74" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -4996,7 +4993,7 @@
         <v>130</v>
       </c>
       <c r="C75" s="52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>290</v>
       </c>
       <c r="D75" s="53">
@@ -5006,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
       <c r="G75" s="54"/>
@@ -5017,7 +5014,7 @@
       <c r="L75" s="54"/>
       <c r="M75" s="54"/>
       <c r="N75" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -5119,7 +5116,7 @@
       </c>
       <c r="J81" s="33">
         <f t="array" ref="J81">SUM($D2:$D75*J2:J75*($N2:$N75&lt;$P$19))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K81" s="33">
         <f t="array" ref="K81">SUM($D2:$D75*K2:K75*($N2:$N75&lt;$P$19))</f>

--- a/StudentGuideModule2/what_labs_to_include/132 lab list for 2016.xlsx
+++ b/StudentGuideModule2/what_labs_to_include/132 lab list for 2016.xlsx
@@ -2160,8 +2160,8 @@
       <pane xSplit="7632" ySplit="864" topLeftCell="I1" activePane="bottomRight"/>
       <selection activeCell="B46" sqref="B46"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="P6" s="48">
         <f t="shared" si="3"/>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="48">
         <f t="shared" si="4"/>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="R6" s="49">
         <f t="shared" si="6"/>
-        <v>12.700000000000001</v>
+        <v>12.950000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="P7" s="8">
         <f t="shared" si="3"/>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="4"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="R7" s="11">
         <f t="shared" si="6"/>
-        <v>12.700000000000001</v>
+        <v>12.950000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -2562,12 +2562,15 @@
         <v>15</v>
       </c>
       <c r="H8" s="36"/>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
       <c r="K8" s="3">
         <v>1</v>
       </c>
       <c r="N8" s="40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" s="20">
         <v>2.5</v>
@@ -5028,11 +5031,11 @@
       </c>
       <c r="J77" s="15">
         <f t="array" ref="J77">SUM($D2:$D75*(J2:J75&gt;=0.9)*($N2:$N75&gt;=$P$19))</f>
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K77" s="15">
         <f t="array" ref="K77">SUM($D2:$D75*(K2:K75&gt;=0.9)*($N2:$N75&gt;=$P$19))</f>
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L77" s="35">
         <f t="array" ref="L77">SUM($D2:$D75*(L2:L75&gt;=0.9)*($N2:$N75&gt;=$P$19))</f>
@@ -5050,11 +5053,11 @@
       </c>
       <c r="J78" s="33">
         <f t="array" ref="J78">SUM($D2:$D75*J2:J75*($N2:$N75&gt;=$P$19))</f>
-        <v>98.5</v>
+        <v>103.5</v>
       </c>
       <c r="K78" s="33">
         <f t="array" ref="K78">SUM($D2:$D75*K2:K75*($N2:$N75&gt;=$P$19))</f>
-        <v>109.4</v>
+        <v>114.4</v>
       </c>
       <c r="L78" s="36">
         <f t="array" ref="L78">SUM($D2:$D75*L2:L75*($N2:$N75&gt;=$P$19))</f>
@@ -5068,19 +5071,19 @@
       </c>
       <c r="I79" s="58">
         <f>I78/$P$6</f>
-        <v>0.80136986301369861</v>
+        <v>0.77483443708609268</v>
       </c>
       <c r="J79" s="58">
         <f>J78/$P$6</f>
-        <v>0.67465753424657537</v>
+        <v>0.68543046357615889</v>
       </c>
       <c r="K79" s="58">
         <f>K78/$P$6</f>
-        <v>0.74931506849315077</v>
+        <v>0.75761589403973517</v>
       </c>
       <c r="L79" s="59">
         <f>L78/$P$6</f>
-        <v>0.77397260273972601</v>
+        <v>0.7483443708609272</v>
       </c>
       <c r="M79" s="36"/>
     </row>
@@ -5094,11 +5097,11 @@
       </c>
       <c r="J80" s="33">
         <f t="array" ref="J80">SUM($D2:$D75*(J2:J75&gt;=0.1)*($N2:$N75&gt;=$P$19))</f>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K80" s="33">
         <f t="array" ref="K80">SUM($D2:$D75*(K2:K75&gt;=0.1)*($N2:$N75&gt;=$P$19))</f>
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L80" s="36">
         <f t="array" ref="L80">SUM($D2:$D75*(L2:L75&gt;=0.1)*($N2:$N75&gt;=$P$19))</f>
@@ -5120,7 +5123,7 @@
       </c>
       <c r="K81" s="33">
         <f t="array" ref="K81">SUM($D2:$D75*K2:K75*($N2:$N75&lt;$P$19))</f>
-        <v>21.5</v>
+        <v>16.5</v>
       </c>
       <c r="L81" s="36">
         <f t="array" ref="L81">SUM($D2:$D75*L2:L75*($N2:$N75&lt;$P$19))</f>
